--- a/docs/Analysis/RP_Planification.xlsx
+++ b/docs/Analysis/RP_Planification.xlsx
@@ -375,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -426,10 +426,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -441,11 +437,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="56">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -487,20 +484,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -541,62 +524,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -625,6 +552,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -632,6 +566,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -639,28 +580,56 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -693,6 +662,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -761,6 +737,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -837,13 +827,6 @@
       <fill>
         <patternFill>
           <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1158,15 +1141,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.140625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="46.140625" style="30" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="13" width="11.5703125" customWidth="1"/>
   </cols>
@@ -1261,7 +1244,7 @@
       <c r="L3" s="14"/>
       <c r="M3" s="16"/>
       <c r="N3" s="11">
-        <f t="shared" ref="N3:N47" si="0">SUM(C3:M3)</f>
+        <f t="shared" ref="N3:N45" si="0">SUM(C3:M3)</f>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
@@ -2295,246 +2278,182 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="16"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="29"/>
       <c r="N45" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="26"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="31"/>
+      <c r="B46" s="11">
+        <f>SUM(B2:B45)</f>
+        <v>3.6666666666666679</v>
+      </c>
+      <c r="C46" s="11">
+        <f>SUM(C2:C45)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D46" s="11">
+        <f>SUM(D2:D45)</f>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="E46" s="11">
+        <f>SUM(E2:E45)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F46" s="11">
+        <f>SUM(F2:F45)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G46" s="11">
+        <f>SUM(G2:G45)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H46" s="11">
+        <f>SUM(H2:H45)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I46" s="11">
+        <f>SUM(I2:I45)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J46" s="11">
+        <f>SUM(J2:J45)</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="K46" s="11">
+        <f>SUM(K2:K45)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L46" s="11">
+        <f>SUM(L2:L45)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M46" s="11">
+        <f>SUM(M2:M45)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M47" s="11">
+        <f>SUM(C46:M46)</f>
+        <v>3.666666666666667</v>
+      </c>
       <c r="N47" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="11">
-        <f>SUM(B2:B47)</f>
+        <f>SUM(N2:N45)</f>
         <v>3.6666666666666679</v>
       </c>
-      <c r="C48" s="11">
-        <f t="shared" ref="C48:M48" si="1">SUM(C2:C47)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D48" s="11">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333326</v>
-      </c>
-      <c r="E48" s="11">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F48" s="11">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G48" s="11">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H48" s="11">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I48" s="11">
-        <f>SUM(I2:I47)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J48" s="11">
-        <f>SUM(J2:J47)</f>
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="K48" s="11">
-        <f>SUM(K2:K47)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L48" s="11">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M48" s="11">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="49" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M49" s="11">
-        <f>SUM(C48:M48)</f>
-        <v>3.666666666666667</v>
-      </c>
-      <c r="N49" s="11">
-        <f>SUM(N2:N47)</f>
-        <v>3.6666666666666679</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:M2 F43:F45 H43:I45 I46:I47 C32:C47 E32:E47 G32:G47 I32:I42 L32:L47 C3:C30 I3:I30 L3:L30 E23:E24 E26:E30 F25 G3:G30 E3:E18 F19:F21">
-    <cfRule type="cellIs" dxfId="57" priority="38" operator="greaterThan">
+  <conditionalFormatting sqref="C2:M2 F43:F44 H43:I44 I32:I42 C3:C30 I3:I30 L3:L30 E23:E24 E26:E30 F25 G3:G30 E3:E18 F19:F21 I45 C32:C45 E32:E45 G32:G45 L32:L45">
+    <cfRule type="cellIs" dxfId="55" priority="38" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:M2 C47:M47 C46 E46:M46 C23:M24 C32:M45 C4:M18 C26:M30 C25:D25 F25:M25 C19:D21 F19:M21 K31:M31 I31">
-    <cfRule type="cellIs" dxfId="56" priority="37" operator="greaterThan">
+  <conditionalFormatting sqref="C2:M2 C23:M24 C32:M45 C4:M18 C26:M30 C25:D25 F25:M25 C19:D21 F19:M21 K31:M31 I31">
+    <cfRule type="cellIs" dxfId="54" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40 I40 G40 E40 C40">
-    <cfRule type="cellIs" dxfId="55" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="36" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:M40">
-    <cfRule type="cellIs" dxfId="54" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="35" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46:K46 F46 H46 M46">
-    <cfRule type="cellIs" dxfId="53" priority="34" operator="greaterThan">
+  <conditionalFormatting sqref="D43:D44 G43:G44 J43:K44">
+    <cfRule type="cellIs" dxfId="51" priority="33" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43:D45 G43:G45 J43:K45">
-    <cfRule type="cellIs" dxfId="52" priority="33" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
+  <conditionalFormatting sqref="C32:M45 C2:M18 C23:M24 C26:M30 C25:D25 F25:M25 G22:M22 C19:D22 F19:M21 K31:M31 I31">
+    <cfRule type="cellIs" dxfId="50" priority="30" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="31" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="32" operator="greaterThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47:M47 C46 E46:M46 C32:M45 C2:M18 C23:M24 C26:M30 C25:D25 F25:M25 G22:M22 C19:D22 F19:M21 K31:M31 I31">
-    <cfRule type="cellIs" dxfId="51" priority="30" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="31" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="32" operator="greaterThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="N2:N4 N19:N23 N6:N17 N25:N36 N42:N45">
+    <cfRule type="cellIs" dxfId="47" priority="24" operator="greaterThan">
+      <formula>$B2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="29" operator="equal">
+      <formula>$B2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N4 N19:N23 N6:N17 N25:N36">
-    <cfRule type="cellIs" dxfId="48" priority="24" operator="greaterThan">
-      <formula>$B2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="29" operator="equal">
-      <formula>$B2</formula>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="cellIs" dxfId="45" priority="26" operator="greaterThan">
+      <formula>3.66666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="28" operator="equal">
+      <formula>3.66666666666667</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
-    <cfRule type="cellIs" dxfId="46" priority="26" operator="greaterThan">
-      <formula>3.66666666666667</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="28" operator="equal">
-      <formula>3.66666666666667</formula>
+  <conditionalFormatting sqref="C46:M46">
+    <cfRule type="cellIs" dxfId="43" priority="25" operator="greaterThan">
+      <formula>0.333333333333333</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="27" operator="equal">
+      <formula>0.333333333333333</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48:M48">
-    <cfRule type="cellIs" dxfId="44" priority="25" operator="greaterThan">
-      <formula>0.333333333333333</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="27" operator="equal">
-      <formula>0.333333333333333</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N38:N40 N42:N47">
-    <cfRule type="cellIs" dxfId="42" priority="22" operator="greaterThan">
+  <conditionalFormatting sqref="N38:N40">
+    <cfRule type="cellIs" dxfId="41" priority="22" operator="greaterThan">
       <formula>$B38</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="23" operator="equal">
       <formula>$B38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="40" priority="14" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="39" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="38" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="11" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="12" operator="greaterThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L41 I41 G41 E41 C41">
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="9" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:M41">
-    <cfRule type="cellIs" dxfId="34" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31 E31 G31 L31">
-    <cfRule type="cellIs" dxfId="33" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="7" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:H31">
-    <cfRule type="cellIs" dxfId="32" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:H31">
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2545,15 +2464,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.140625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="46.140625" style="30" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="13" width="11.5703125" customWidth="1"/>
   </cols>
@@ -2648,7 +2567,7 @@
       <c r="L3" s="14"/>
       <c r="M3" s="16"/>
       <c r="N3" s="11">
-        <f t="shared" ref="N3:N47" si="0">SUM(C3:M3)</f>
+        <f t="shared" ref="N3:N45" si="0">SUM(C3:M3)</f>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
@@ -2880,7 +2799,9 @@
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="14"/>
+      <c r="E13" s="14">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="F13" s="15"/>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
@@ -2891,7 +2812,7 @@
       <c r="M13" s="16"/>
       <c r="N13" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2903,7 +2824,9 @@
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="14"/>
+      <c r="E14" s="14">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F14" s="15"/>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
@@ -2914,7 +2837,7 @@
       <c r="M14" s="16"/>
       <c r="N14" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2926,7 +2849,9 @@
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="14"/>
+      <c r="E15" s="14">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F15" s="15"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
@@ -2937,7 +2862,7 @@
       <c r="M15" s="16"/>
       <c r="N15" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2949,7 +2874,9 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="14"/>
+      <c r="E16" s="14">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F16" s="15"/>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
@@ -2960,7 +2887,7 @@
       <c r="M16" s="16"/>
       <c r="N16" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -2972,7 +2899,9 @@
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="14"/>
+      <c r="E17" s="14">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F17" s="15"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
@@ -2983,7 +2912,7 @@
       <c r="M17" s="16"/>
       <c r="N17" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -3012,6 +2941,9 @@
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
+      <c r="E19" s="14">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F19" s="14"/>
       <c r="G19" s="21"/>
       <c r="H19" s="15"/>
@@ -3022,7 +2954,7 @@
       <c r="M19" s="16"/>
       <c r="N19" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -3034,6 +2966,9 @@
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="15"/>
+      <c r="E20" s="14">
+        <v>6.25E-2</v>
+      </c>
       <c r="F20" s="14"/>
       <c r="G20" s="21"/>
       <c r="H20" s="15"/>
@@ -3044,7 +2979,7 @@
       <c r="M20" s="16"/>
       <c r="N20" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3056,6 +2991,9 @@
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="15"/>
+      <c r="E21" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
@@ -3066,7 +3004,7 @@
       <c r="M21" s="16"/>
       <c r="N21" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -3078,6 +3016,9 @@
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="15"/>
+      <c r="E22" s="14">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="G22" s="14"/>
       <c r="H22" s="15"/>
       <c r="I22" s="21"/>
@@ -3087,7 +3028,7 @@
       <c r="M22" s="16"/>
       <c r="N22" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -3099,7 +3040,7 @@
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="14"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="15"/>
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
@@ -3120,7 +3061,7 @@
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="14"/>
+      <c r="E24" s="31"/>
       <c r="F24" s="15"/>
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
@@ -3139,6 +3080,7 @@
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
@@ -3161,7 +3103,7 @@
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="15"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="15"/>
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
@@ -3184,7 +3126,7 @@
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="14"/>
+      <c r="E27" s="31"/>
       <c r="F27" s="15"/>
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
@@ -3207,7 +3149,7 @@
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="15"/>
-      <c r="E28" s="14"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="15"/>
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
@@ -3230,7 +3172,7 @@
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="14"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="15"/>
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
@@ -3253,7 +3195,7 @@
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="15"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="15"/>
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
@@ -3276,7 +3218,7 @@
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="15"/>
-      <c r="E31" s="14"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="15"/>
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
@@ -3298,7 +3240,7 @@
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="14"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="15"/>
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
@@ -3321,7 +3263,7 @@
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="14"/>
+      <c r="E33" s="31"/>
       <c r="F33" s="15"/>
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
@@ -3344,7 +3286,7 @@
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="14"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="15"/>
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
@@ -3367,7 +3309,7 @@
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="14"/>
+      <c r="E35" s="31"/>
       <c r="F35" s="15"/>
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
@@ -3390,7 +3332,7 @@
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="14"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="15"/>
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
@@ -3411,7 +3353,7 @@
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="15"/>
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
@@ -3430,7 +3372,7 @@
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="14"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="15"/>
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
@@ -3453,7 +3395,7 @@
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="14"/>
+      <c r="E39" s="31"/>
       <c r="F39" s="15"/>
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
@@ -3476,7 +3418,7 @@
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="14"/>
+      <c r="E40" s="31"/>
       <c r="F40" s="15"/>
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
@@ -3497,7 +3439,7 @@
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="14"/>
+      <c r="E41" s="31"/>
       <c r="F41" s="15"/>
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
@@ -3520,7 +3462,9 @@
       <c r="D42" s="15">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E42" s="15"/>
+      <c r="E42" s="14">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
@@ -3531,7 +3475,7 @@
       <c r="M42" s="16"/>
       <c r="N42" s="11">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.27083333333333331</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -3543,7 +3487,7 @@
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
+      <c r="E43" s="31"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
@@ -3566,7 +3510,7 @@
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
+      <c r="E44" s="31"/>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
@@ -3580,239 +3524,217 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="16"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="29"/>
       <c r="N45" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="11">
-        <f t="shared" si="0"/>
+      <c r="B46" s="11">
+        <f>SUM(B2:B45)</f>
+        <v>3.6666666666666679</v>
+      </c>
+      <c r="C46" s="11">
+        <f>SUM(C2:C45)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D46" s="11">
+        <f>SUM(D2:D45)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E46" s="11">
+        <f>SUM(E2:E45)</f>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="F46" s="11">
+        <f>SUM(F2:F45)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="26"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="31"/>
+      <c r="G46" s="11">
+        <f>SUM(G2:G45)</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="11">
+        <f>SUM(H2:H45)</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="11">
+        <f>SUM(I2:I45)</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <f>SUM(J2:J45)</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <f>SUM(K2:K45)</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <f>SUM(L2:L45)</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <f>SUM(M2:M45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M47" s="11">
+        <f>SUM(C46:M46)</f>
+        <v>0.99999999999999989</v>
+      </c>
       <c r="N47" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="11">
-        <f>SUM(B2:B47)</f>
-        <v>3.6666666666666679</v>
-      </c>
-      <c r="C48" s="11">
-        <f t="shared" ref="C48:M48" si="1">SUM(C2:C47)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D48" s="11">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E48" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="11">
-        <f>SUM(I2:I47)</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="11">
-        <f>SUM(J2:J47)</f>
-        <v>0</v>
-      </c>
-      <c r="K48" s="11">
-        <f>SUM(K2:K47)</f>
-        <v>0</v>
-      </c>
-      <c r="L48" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M49" s="11">
-        <f>SUM(C48:M48)</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="N49" s="11">
-        <f>SUM(N2:N47)</f>
-        <v>0.66666666666666663</v>
+        <f>SUM(N2:N45)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:M2 F43:F45 H43:I45 I46:I47 C32:C47 E32:E47 G32:G47 I32:I42 L32:L47 C3:C30 I3:I30 L3:L30 E23:E24 E26:E30 F25 G3:G30 E3:E18 F19:F21">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="greaterThan">
+  <conditionalFormatting sqref="C2:M2 F43:F44 H43:I44 I32:I42 C3:C30 I3:I30 L3:L30 F25 G3:G30 E3:E18 F19:F21 I45 C32:C45 E45 G32:G45 L32:L45">
+    <cfRule type="cellIs" dxfId="32" priority="39" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:M2 C47:M47 C46 E46:M46 C23:M24 C32:M45 C4:M18 C26:M30 C25:D25 F25:M25 C19:D21 F19:M21 K31:M31 I31">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="greaterThan">
+  <conditionalFormatting sqref="C2:M2 C45:M45 C4:M18 C23:D30 C19:D21 F19:M21 K31:M31 I31 F23:M30 C32:D44 F32:M44">
+    <cfRule type="cellIs" dxfId="31" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L40 I40 G40 E40 C40">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="greaterThan">
+  <conditionalFormatting sqref="L40 I40 G40 C40">
+    <cfRule type="cellIs" dxfId="30" priority="37" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40:M40">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="greaterThan">
+  <conditionalFormatting sqref="C40:D40 F40:M40">
+    <cfRule type="cellIs" dxfId="29" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46:K46 F46 H46 M46">
+  <conditionalFormatting sqref="D43:D44 G43:G44 J43:K44">
+    <cfRule type="cellIs" dxfId="28" priority="34" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45:M45 C2:M18 G22:M22 C19:D30 F19:M21 K31:M31 I31 F23:M30 C32:D44 F32:M44">
+    <cfRule type="cellIs" dxfId="27" priority="31" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="32" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="33" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N4 N19:N23 N6:N17 N25:N36 N42:N45">
     <cfRule type="cellIs" dxfId="24" priority="25" operator="greaterThan">
+      <formula>$B2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="30" operator="equal">
+      <formula>$B2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="greaterThan">
+      <formula>3.66666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
+      <formula>3.66666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:M46">
+    <cfRule type="cellIs" dxfId="20" priority="26" operator="greaterThan">
+      <formula>0.333333333333333</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="28" operator="equal">
+      <formula>0.333333333333333</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N38:N40">
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="greaterThan">
+      <formula>$B38</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
+      <formula>$B38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L41 I41 G41 C41">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43:D45 G43:G45 J43:K45">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="greaterThan">
+  <conditionalFormatting sqref="C41:D41 F41:M41">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31 G31 L31">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47:M47 C46 E46:M46 C32:M45 C2:M18 C23:M24 C26:M30 C25:D25 F25:M25 G22:M22 C19:D22 F19:M21 K31:M31 I31">
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="greaterThan">
+  <conditionalFormatting sqref="C31:D31 F31:H31">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="greaterThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:D31 F31:H31">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N4 N19:N23 N6:N17 N25:N36">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="greaterThan">
-      <formula>$B2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
-      <formula>$B2</formula>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="greaterThan">
-      <formula>3.66666666666667</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
-      <formula>3.66666666666667</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48:M48">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
-      <formula>0.333333333333333</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
-      <formula>0.333333333333333</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N38:N40 N42:N47">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="greaterThan">
-      <formula>$B38</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
-      <formula>$B38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
+  <conditionalFormatting sqref="E19">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L41 I41 G41 E41 C41">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41:M41">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31 E31 G31 L31">
+  <conditionalFormatting sqref="E20:E44">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:H31">
+  <conditionalFormatting sqref="E20:E44">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:H31">
+  <conditionalFormatting sqref="E20:E44">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/docs/Analysis/RP_Planification.xlsx
+++ b/docs/Analysis/RP_Planification.xlsx
@@ -442,7 +442,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="61">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1143,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2299,51 +2339,51 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
-        <f>SUM(B2:B45)</f>
+        <f t="shared" ref="B46:M46" si="1">SUM(B2:B45)</f>
         <v>3.6666666666666679</v>
       </c>
       <c r="C46" s="11">
-        <f>SUM(C2:C45)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="D46" s="11">
-        <f>SUM(D2:D45)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333326</v>
       </c>
       <c r="E46" s="11">
-        <f>SUM(E2:E45)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F46" s="11">
-        <f>SUM(F2:F45)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G46" s="11">
-        <f>SUM(G2:G45)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="H46" s="11">
-        <f>SUM(H2:H45)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="I46" s="11">
-        <f>SUM(I2:I45)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="J46" s="11">
-        <f>SUM(J2:J45)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="K46" s="11">
-        <f>SUM(K2:K45)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="L46" s="11">
-        <f>SUM(L2:L45)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="M46" s="11">
-        <f>SUM(M2:M45)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -2359,101 +2399,101 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:M2 F43:F44 H43:I44 I32:I42 C3:C30 I3:I30 L3:L30 E23:E24 E26:E30 F25 G3:G30 E3:E18 F19:F21 I45 C32:C45 E32:E45 G32:G45 L32:L45">
-    <cfRule type="cellIs" dxfId="55" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="38" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:M2 C23:M24 C32:M45 C4:M18 C26:M30 C25:D25 F25:M25 C19:D21 F19:M21 K31:M31 I31">
-    <cfRule type="cellIs" dxfId="54" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40 I40 G40 E40 C40">
-    <cfRule type="cellIs" dxfId="53" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="36" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:M40">
-    <cfRule type="cellIs" dxfId="52" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="35" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D44 G43:G44 J43:K44">
-    <cfRule type="cellIs" dxfId="51" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="33" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:M45 C2:M18 C23:M24 C26:M30 C25:D25 F25:M25 G22:M22 C19:D22 F19:M21 K31:M31 I31">
-    <cfRule type="cellIs" dxfId="50" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N4 N19:N23 N6:N17 N25:N36 N42:N45">
-    <cfRule type="cellIs" dxfId="47" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="24" operator="greaterThan">
       <formula>$B2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="29" operator="equal">
       <formula>$B2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="cellIs" dxfId="45" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="26" operator="greaterThan">
       <formula>3.66666666666667</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="28" operator="equal">
       <formula>3.66666666666667</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:M46">
-    <cfRule type="cellIs" dxfId="43" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="25" operator="greaterThan">
       <formula>0.333333333333333</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="27" operator="equal">
       <formula>0.333333333333333</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38:N40">
-    <cfRule type="cellIs" dxfId="41" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="22" operator="greaterThan">
       <formula>$B38</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="23" operator="equal">
       <formula>$B38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L41 I41 G41 E41 C41">
-    <cfRule type="cellIs" dxfId="39" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="9" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:M41">
-    <cfRule type="cellIs" dxfId="38" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31 E31 G31 L31">
-    <cfRule type="cellIs" dxfId="37" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="7" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:H31">
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:H31">
-    <cfRule type="cellIs" dxfId="35" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2466,8 +2506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3019,6 +3059,9 @@
       <c r="E22" s="14">
         <v>2.0833333333333332E-2</v>
       </c>
+      <c r="F22" s="14">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="G22" s="14"/>
       <c r="H22" s="15"/>
       <c r="I22" s="21"/>
@@ -3028,7 +3071,7 @@
       <c r="M22" s="16"/>
       <c r="N22" s="11">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -3041,7 +3084,9 @@
       <c r="C23" s="21"/>
       <c r="D23" s="15"/>
       <c r="E23" s="31"/>
-      <c r="F23" s="15"/>
+      <c r="F23" s="15">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
       <c r="I23" s="21"/>
@@ -3051,7 +3096,7 @@
       <c r="M23" s="16"/>
       <c r="N23" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -3081,7 +3126,9 @@
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
       <c r="E25" s="31"/>
-      <c r="F25" s="14"/>
+      <c r="F25" s="14">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
       <c r="I25" s="14"/>
@@ -3091,7 +3138,7 @@
       <c r="M25" s="16"/>
       <c r="N25" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -3104,7 +3151,9 @@
       <c r="C26" s="14"/>
       <c r="D26" s="15"/>
       <c r="E26" s="31"/>
-      <c r="F26" s="15"/>
+      <c r="F26" s="15">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
       <c r="I26" s="14"/>
@@ -3114,7 +3163,7 @@
       <c r="M26" s="16"/>
       <c r="N26" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -3373,7 +3422,9 @@
       <c r="C38" s="14"/>
       <c r="D38" s="15"/>
       <c r="E38" s="31"/>
-      <c r="F38" s="15"/>
+      <c r="F38" s="15">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
       <c r="I38" s="14"/>
@@ -3383,7 +3434,7 @@
       <c r="M38" s="16"/>
       <c r="N38" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -3396,7 +3447,9 @@
       <c r="C39" s="14"/>
       <c r="D39" s="15"/>
       <c r="E39" s="31"/>
-      <c r="F39" s="15"/>
+      <c r="F39" s="15">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
       <c r="I39" s="14"/>
@@ -3406,7 +3459,7 @@
       <c r="M39" s="16"/>
       <c r="N39" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.10416666666666667</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -3465,7 +3518,9 @@
       <c r="E42" s="14">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="F42" s="15"/>
+      <c r="F42" s="15">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
@@ -3475,7 +3530,7 @@
       <c r="M42" s="16"/>
       <c r="N42" s="11">
         <f t="shared" si="0"/>
-        <v>0.27083333333333331</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -3545,154 +3600,175 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
-        <f>SUM(B2:B45)</f>
+        <f t="shared" ref="B46:M46" si="1">SUM(B2:B45)</f>
         <v>3.6666666666666679</v>
       </c>
       <c r="C46" s="11">
-        <f>SUM(C2:C45)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="D46" s="11">
-        <f>SUM(D2:D45)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="E46" s="11">
-        <f>SUM(E2:E45)</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333326</v>
       </c>
       <c r="F46" s="11">
-        <f>SUM(F2:F45)</f>
+        <f t="shared" si="1"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="G46" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G46" s="11">
-        <f>SUM(G2:G45)</f>
+      <c r="H46" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H46" s="11">
-        <f>SUM(H2:H45)</f>
+      <c r="I46" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I46" s="11">
-        <f>SUM(I2:I45)</f>
+      <c r="J46" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J46" s="11">
-        <f>SUM(J2:J45)</f>
+      <c r="K46" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K46" s="11">
-        <f>SUM(K2:K45)</f>
+      <c r="L46" s="11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L46" s="11">
-        <f>SUM(L2:L45)</f>
-        <v>0</v>
-      </c>
       <c r="M46" s="11">
-        <f>SUM(M2:M45)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M47" s="11">
         <f>SUM(C46:M46)</f>
-        <v>0.99999999999999989</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="N47" s="11">
         <f>SUM(N2:N45)</f>
-        <v>1</v>
+        <v>1.3333333333333335</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:M2 F43:F44 H43:I44 I32:I42 C3:C30 I3:I30 L3:L30 F25 G3:G30 E3:E18 F19:F21 I45 C32:C45 E45 G32:G45 L32:L45">
-    <cfRule type="cellIs" dxfId="32" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="44" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:M2 C45:M45 C4:M18 C23:D30 C19:D21 F19:M21 K31:M31 I31 F23:M30 C32:D44 F32:M44">
-    <cfRule type="cellIs" dxfId="31" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40 I40 G40 C40">
-    <cfRule type="cellIs" dxfId="30" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="42" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:D40 F40:M40">
-    <cfRule type="cellIs" dxfId="29" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="41" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D44 G43:G44 J43:K44">
-    <cfRule type="cellIs" dxfId="28" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="39" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:M45 C2:M18 G22:M22 C19:D30 F19:M21 K31:M31 I31 F23:M30 C32:D44 F32:M44">
-    <cfRule type="cellIs" dxfId="27" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N4 N19:N23 N6:N17 N25:N36 N42:N45">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="greaterThan">
       <formula>$B2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
       <formula>$B2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="32" operator="greaterThan">
       <formula>3.66666666666667</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
       <formula>3.66666666666667</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:M46">
-    <cfRule type="cellIs" dxfId="20" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="31" operator="greaterThan">
       <formula>0.333333333333333</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="33" operator="equal">
       <formula>0.333333333333333</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38:N40">
-    <cfRule type="cellIs" dxfId="18" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="greaterThan">
       <formula>$B38</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
       <formula>$B38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L41 I41 G41 C41">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:D41 F41:M41">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31 G31 L31">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:D31 F31:H31">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:D31 F31:H31">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:D31 F31:H31">
+  <conditionalFormatting sqref="E19">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:D31 F31:H31">
+  <conditionalFormatting sqref="E19">
     <cfRule type="cellIs" dxfId="12" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -3703,17 +3779,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
+  <conditionalFormatting sqref="E20:E44">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
+  <conditionalFormatting sqref="E20:E44">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
+  <conditionalFormatting sqref="E20:E44">
     <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -3724,17 +3800,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E44">
+  <conditionalFormatting sqref="F22">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E44">
+  <conditionalFormatting sqref="F22">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E44">
+  <conditionalFormatting sqref="F22">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/docs/Analysis/RP_Planification.xlsx
+++ b/docs/Analysis/RP_Planification.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Prévisionnel" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,40 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="65">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1183,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2399,101 +2432,101 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:M2 F43:F44 H43:I44 I32:I42 C3:C30 I3:I30 L3:L30 E23:E24 E26:E30 F25 G3:G30 E3:E18 F19:F21 I45 C32:C45 E32:E45 G32:G45 L32:L45">
-    <cfRule type="cellIs" dxfId="60" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="38" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:M2 C23:M24 C32:M45 C4:M18 C26:M30 C25:D25 F25:M25 C19:D21 F19:M21 K31:M31 I31">
-    <cfRule type="cellIs" dxfId="59" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40 I40 G40 E40 C40">
-    <cfRule type="cellIs" dxfId="58" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="36" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:M40">
-    <cfRule type="cellIs" dxfId="57" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="35" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D44 G43:G44 J43:K44">
-    <cfRule type="cellIs" dxfId="56" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="33" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:M45 C2:M18 C23:M24 C26:M30 C25:D25 F25:M25 G22:M22 C19:D22 F19:M21 K31:M31 I31">
-    <cfRule type="cellIs" dxfId="55" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="31" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N4 N19:N23 N6:N17 N25:N36 N42:N45">
-    <cfRule type="cellIs" dxfId="52" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="24" operator="greaterThan">
       <formula>$B2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="29" operator="equal">
       <formula>$B2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="cellIs" dxfId="50" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="26" operator="greaterThan">
       <formula>3.66666666666667</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="28" operator="equal">
       <formula>3.66666666666667</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:M46">
-    <cfRule type="cellIs" dxfId="48" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="25" operator="greaterThan">
       <formula>0.333333333333333</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="27" operator="equal">
       <formula>0.333333333333333</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38:N40">
-    <cfRule type="cellIs" dxfId="46" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="22" operator="greaterThan">
       <formula>$B38</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="23" operator="equal">
       <formula>$B38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L41 I41 G41 E41 C41">
-    <cfRule type="cellIs" dxfId="44" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="9" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:M41">
-    <cfRule type="cellIs" dxfId="43" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31 E31 G31 L31">
-    <cfRule type="cellIs" dxfId="42" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="7" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:H31">
-    <cfRule type="cellIs" dxfId="41" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:H31">
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2506,8 +2539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3129,13 +3162,13 @@
       <c r="F25" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G25" s="14"/>
+      <c r="G25" s="15"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="14"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="16"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
       <c r="N25" s="11">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
@@ -3154,13 +3187,13 @@
       <c r="F26" s="15">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G26" s="14"/>
+      <c r="G26" s="15"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="14"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="16"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
       <c r="N26" s="11">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
@@ -3177,16 +3210,18 @@
       <c r="D27" s="15"/>
       <c r="E27" s="31"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="14"/>
+      <c r="G27" s="15">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="H27" s="15"/>
-      <c r="I27" s="14"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="16"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
       <c r="N27" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -3200,16 +3235,18 @@
       <c r="D28" s="15"/>
       <c r="E28" s="31"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="14"/>
+      <c r="G28" s="15">
+        <v>6.25E-2</v>
+      </c>
       <c r="H28" s="15"/>
-      <c r="I28" s="14"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="16"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
       <c r="N28" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -3223,16 +3260,18 @@
       <c r="D29" s="15"/>
       <c r="E29" s="31"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="14"/>
+      <c r="G29" s="15">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H29" s="15"/>
-      <c r="I29" s="14"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="16"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
       <c r="N29" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -3246,16 +3285,18 @@
       <c r="D30" s="15"/>
       <c r="E30" s="31"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="14"/>
+      <c r="G30" s="15">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H30" s="15"/>
-      <c r="I30" s="14"/>
+      <c r="I30" s="15"/>
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="16"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
       <c r="N30" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -3269,15 +3310,18 @@
       <c r="D31" s="15"/>
       <c r="E31" s="31"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="14"/>
+      <c r="G31" s="15">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
       <c r="K31" s="15"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="16"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
       <c r="N31" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -3291,16 +3335,18 @@
       <c r="D32" s="15"/>
       <c r="E32" s="31"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="14"/>
+      <c r="G32" s="15">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="H32" s="15"/>
-      <c r="I32" s="14"/>
+      <c r="I32" s="15"/>
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="16"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
       <c r="N32" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -3314,16 +3360,18 @@
       <c r="D33" s="15"/>
       <c r="E33" s="31"/>
       <c r="F33" s="15"/>
-      <c r="G33" s="14"/>
+      <c r="G33" s="15">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="H33" s="15"/>
-      <c r="I33" s="14"/>
+      <c r="I33" s="15"/>
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="16"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
       <c r="N33" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -3337,16 +3385,18 @@
       <c r="D34" s="15"/>
       <c r="E34" s="31"/>
       <c r="F34" s="15"/>
-      <c r="G34" s="14"/>
+      <c r="G34" s="15">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H34" s="15"/>
-      <c r="I34" s="14"/>
+      <c r="I34" s="15"/>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="16"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
       <c r="N34" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -3360,13 +3410,13 @@
       <c r="D35" s="15"/>
       <c r="E35" s="31"/>
       <c r="F35" s="15"/>
-      <c r="G35" s="14"/>
+      <c r="G35" s="15"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="14"/>
+      <c r="I35" s="15"/>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="16"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
       <c r="N35" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3383,13 +3433,13 @@
       <c r="D36" s="15"/>
       <c r="E36" s="31"/>
       <c r="F36" s="15"/>
-      <c r="G36" s="14"/>
+      <c r="G36" s="15"/>
       <c r="H36" s="15"/>
-      <c r="I36" s="14"/>
+      <c r="I36" s="15"/>
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="16"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
       <c r="N36" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3404,13 +3454,13 @@
       <c r="D37" s="15"/>
       <c r="E37" s="31"/>
       <c r="F37" s="15"/>
-      <c r="G37" s="14"/>
+      <c r="G37" s="15"/>
       <c r="H37" s="15"/>
-      <c r="I37" s="14"/>
+      <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="16"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
@@ -3425,16 +3475,18 @@
       <c r="F38" s="15">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G38" s="14"/>
+      <c r="G38" s="15">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="H38" s="15"/>
-      <c r="I38" s="14"/>
+      <c r="I38" s="15"/>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="16"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
       <c r="N38" s="11">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.10416666666666666</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -3450,13 +3502,13 @@
       <c r="F39" s="15">
         <v>0.10416666666666667</v>
       </c>
-      <c r="G39" s="14"/>
+      <c r="G39" s="15"/>
       <c r="H39" s="15"/>
-      <c r="I39" s="14"/>
+      <c r="I39" s="15"/>
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="16"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
       <c r="N39" s="11">
         <f t="shared" si="0"/>
         <v>0.10416666666666667</v>
@@ -3473,13 +3525,13 @@
       <c r="D40" s="15"/>
       <c r="E40" s="31"/>
       <c r="F40" s="15"/>
-      <c r="G40" s="14"/>
+      <c r="G40" s="15"/>
       <c r="H40" s="15"/>
-      <c r="I40" s="14"/>
+      <c r="I40" s="15"/>
       <c r="J40" s="15"/>
       <c r="K40" s="15"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="16"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
       <c r="N40" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3494,13 +3546,13 @@
       <c r="D41" s="15"/>
       <c r="E41" s="31"/>
       <c r="F41" s="15"/>
-      <c r="G41" s="14"/>
+      <c r="G41" s="15"/>
       <c r="H41" s="15"/>
-      <c r="I41" s="14"/>
+      <c r="I41" s="15"/>
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="16"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
@@ -3521,16 +3573,18 @@
       <c r="F42" s="15">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G42" s="15"/>
+      <c r="G42" s="15">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
-      <c r="M42" s="16"/>
+      <c r="M42" s="15"/>
       <c r="N42" s="11">
         <f t="shared" si="0"/>
-        <v>0.3125</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -3544,13 +3598,13 @@
       <c r="D43" s="14"/>
       <c r="E43" s="31"/>
       <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="16"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
       <c r="N43" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3621,7 +3675,7 @@
       </c>
       <c r="G46" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="H46" s="11">
         <f t="shared" si="1"/>
@@ -3651,166 +3705,182 @@
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M47" s="11">
         <f>SUM(C46:M46)</f>
-        <v>1.3333333333333333</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="N47" s="11">
         <f>SUM(N2:N45)</f>
-        <v>1.3333333333333335</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:M2 F43:F44 H43:I44 I32:I42 C3:C30 I3:I30 L3:L30 F25 G3:G30 E3:E18 F19:F21 I45 C32:C45 E45 G32:G45 L32:L45">
-    <cfRule type="cellIs" dxfId="37" priority="44" operator="greaterThan">
+  <conditionalFormatting sqref="C2:M2 F43:F44 H44:I44 C3:C30 I3:I24 L3:L24 F25 G3:G24 E3:E18 F19:F21 I45 C32:C45 E45 G44:G45 L44:L45">
+    <cfRule type="cellIs" dxfId="41" priority="48" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:M2 C45:M45 C4:M18 C23:D30 C19:D21 F19:M21 K31:M31 I31 F23:M30 C32:D44 F32:M44">
-    <cfRule type="cellIs" dxfId="36" priority="43" operator="greaterThan">
+  <conditionalFormatting sqref="C2:M2 C45:M45 C4:M18 C23:D30 C19:D21 F19:M21 F23:M24 C32:D44 F44:M44 F32:F43 F25:F30">
+    <cfRule type="cellIs" dxfId="40" priority="47" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L40 I40 G40 C40">
-    <cfRule type="cellIs" dxfId="35" priority="42" operator="greaterThan">
+  <conditionalFormatting sqref="C40">
+    <cfRule type="cellIs" dxfId="39" priority="46" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40:D40 F40:M40">
-    <cfRule type="cellIs" dxfId="34" priority="41" operator="greaterThan">
+  <conditionalFormatting sqref="C40:D40 F40">
+    <cfRule type="cellIs" dxfId="38" priority="45" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43:D44 G43:G44 J43:K44">
-    <cfRule type="cellIs" dxfId="33" priority="39" operator="greaterThan">
+  <conditionalFormatting sqref="D43:D44 G44 J44:K44">
+    <cfRule type="cellIs" dxfId="37" priority="43" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C45:M45 C2:M18 G22:M22 C19:D30 F19:M21 K31:M31 I31 F23:M30 C32:D44 F32:M44">
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="greaterThan">
+  <conditionalFormatting sqref="C45:M45 C2:M18 G22:M22 C19:D30 F19:M21 F23:M24 C32:D44 F44:M44 F32:F43 F25:F30">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="41" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N4 N19:N23 N6:N17 N25:N36 N42:N45">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="greaterThan">
       <formula>$B2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="39" operator="equal">
       <formula>$B2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
+    <cfRule type="cellIs" dxfId="31" priority="36" operator="greaterThan">
+      <formula>3.66666666666667</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
+      <formula>3.66666666666667</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:M46">
+    <cfRule type="cellIs" dxfId="29" priority="35" operator="greaterThan">
+      <formula>0.333333333333333</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="37" operator="equal">
+      <formula>0.333333333333333</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N38:N40">
     <cfRule type="cellIs" dxfId="27" priority="32" operator="greaterThan">
-      <formula>3.66666666666667</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
-      <formula>3.66666666666667</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46:M46">
-    <cfRule type="cellIs" dxfId="25" priority="31" operator="greaterThan">
-      <formula>0.333333333333333</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="33" operator="equal">
-      <formula>0.333333333333333</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N38:N40">
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="greaterThan">
       <formula>$B38</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="33" operator="equal">
       <formula>$B38</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L41 I41 G41 C41">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="greaterThan">
+  <conditionalFormatting sqref="C41">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41:D41 F41:M41">
+  <conditionalFormatting sqref="C41:D41 F41">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:D31 F31">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:D31 F31">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="20" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31 G31 L31">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:D31 F31:H31">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="greaterThan">
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:D31 F31:H31">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="greaterThan">
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
+  <conditionalFormatting sqref="E20:E44">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
+  <conditionalFormatting sqref="E20:E44">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="E20:E44">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E44">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+  <conditionalFormatting sqref="F22">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E44">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+  <conditionalFormatting sqref="F22">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E44">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">
+  <conditionalFormatting sqref="F22">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
+  <conditionalFormatting sqref="G25:M43">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
+  <conditionalFormatting sqref="G25:M43">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/docs/Analysis/RP_Planification.xlsx
+++ b/docs/Analysis/RP_Planification.xlsx
@@ -375,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -438,6 +438,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1216,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2539,8 +2551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2670,21 +2682,22 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="16"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="37"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
@@ -2989,21 +3002,22 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="16"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="37"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
@@ -3133,21 +3147,22 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="16"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="37"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
@@ -3411,7 +3426,9 @@
       <c r="E35" s="31"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
+      <c r="H35" s="15">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
@@ -3419,7 +3436,7 @@
       <c r="M35" s="15"/>
       <c r="N35" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -3434,7 +3451,9 @@
       <c r="E36" s="31"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
+      <c r="H36" s="15">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
@@ -3442,25 +3461,26 @@
       <c r="M36" s="15"/>
       <c r="N36" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="37"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
@@ -3478,7 +3498,9 @@
       <c r="G38" s="15">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="H38" s="15"/>
+      <c r="H38" s="15">
+        <v>0.125</v>
+      </c>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
@@ -3486,7 +3508,7 @@
       <c r="M38" s="15"/>
       <c r="N38" s="11">
         <f t="shared" si="0"/>
-        <v>0.10416666666666666</v>
+        <v>0.22916666666666666</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -3538,21 +3560,22 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="37"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
@@ -3576,7 +3599,9 @@
       <c r="G42" s="15">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H42" s="15"/>
+      <c r="H42" s="15">
+        <v>0.125</v>
+      </c>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
       <c r="K42" s="15"/>
@@ -3584,7 +3609,7 @@
       <c r="M42" s="15"/>
       <c r="N42" s="11">
         <f t="shared" si="0"/>
-        <v>0.35416666666666669</v>
+        <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -3679,7 +3704,7 @@
       </c>
       <c r="H46" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I46" s="11">
         <f t="shared" si="1"/>
@@ -3705,11 +3730,11 @@
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M47" s="11">
         <f>SUM(C46:M46)</f>
-        <v>1.6666666666666665</v>
+        <v>1.9999999999999998</v>
       </c>
       <c r="N47" s="11">
         <f>SUM(N2:N45)</f>
-        <v>1.6666666666666667</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Analysis/RP_Planification.xlsx
+++ b/docs/Analysis/RP_Planification.xlsx
@@ -2552,7 +2552,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3427,16 +3427,18 @@
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="I35" s="15"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="I35" s="15">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
       <c r="N35" s="11">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.10416666666666666</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -3499,16 +3501,18 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="H38" s="15">
-        <v>0.125</v>
-      </c>
-      <c r="I38" s="15"/>
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="I38" s="15">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
       <c r="N38" s="11">
         <f t="shared" si="0"/>
-        <v>0.22916666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -3526,14 +3530,16 @@
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
+      <c r="I39" s="15">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
       <c r="N39" s="11">
         <f t="shared" si="0"/>
-        <v>0.10416666666666667</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -3602,14 +3608,16 @@
       <c r="H42" s="15">
         <v>0.125</v>
       </c>
-      <c r="I42" s="15"/>
+      <c r="I42" s="15">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="J42" s="15"/>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
       <c r="N42" s="11">
         <f t="shared" si="0"/>
-        <v>0.47916666666666669</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -3704,11 +3712,11 @@
       </c>
       <c r="H46" s="11">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="I46" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J46" s="11">
         <f t="shared" si="1"/>
@@ -3730,11 +3738,11 @@
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M47" s="11">
         <f>SUM(C46:M46)</f>
-        <v>1.9999999999999998</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="N47" s="11">
         <f>SUM(N2:N45)</f>
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Analysis/RP_Planification.xlsx
+++ b/docs/Analysis/RP_Planification.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
   <si>
     <t>Tâches à réaliser</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>Évaluation d'une annonce</t>
+  </si>
+  <si>
+    <t>Manuel utilisateur</t>
   </si>
 </sst>
 </file>
@@ -2552,7 +2555,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3533,13 +3536,15 @@
       <c r="I39" s="15">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J39" s="15"/>
+      <c r="J39" s="15">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
       <c r="N39" s="11">
         <f t="shared" si="0"/>
-        <v>0.1875</v>
+        <v>0.27083333333333331</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -3611,18 +3616,20 @@
       <c r="I42" s="15">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J42" s="15"/>
+      <c r="J42" s="15">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
       <c r="N42" s="11">
         <f t="shared" si="0"/>
-        <v>0.5625</v>
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B43" s="13">
         <v>0.33333333333333331</v>
@@ -3634,13 +3641,15 @@
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
+      <c r="J43" s="15">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
       <c r="N43" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -3720,7 +3729,7 @@
       </c>
       <c r="J46" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K46" s="11">
         <f t="shared" si="1"/>
@@ -3738,11 +3747,11 @@
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M47" s="11">
         <f>SUM(C46:M46)</f>
-        <v>2.3333333333333335</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="N47" s="11">
         <f>SUM(N2:N45)</f>
-        <v>2.333333333333333</v>
+        <v>2.6666666666666665</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Analysis/RP_Planification.xlsx
+++ b/docs/Analysis/RP_Planification.xlsx
@@ -2554,8 +2554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3509,13 +3509,14 @@
       <c r="I38" s="15">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
+      <c r="K38" s="15">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
       <c r="N38" s="11">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666663</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -3539,12 +3540,14 @@
       <c r="J39" s="15">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="K39" s="15"/>
+      <c r="K39" s="15">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
       <c r="N39" s="11">
         <f t="shared" si="0"/>
-        <v>0.27083333333333331</v>
+        <v>0.35416666666666663</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -3562,12 +3565,14 @@
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
+      <c r="K40" s="15">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
       <c r="N40" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -3619,12 +3624,14 @@
       <c r="J42" s="15">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="K42" s="15"/>
+      <c r="K42" s="15">
+        <v>0.125</v>
+      </c>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
       <c r="N42" s="11">
         <f t="shared" si="0"/>
-        <v>0.64583333333333337</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -3733,7 +3740,7 @@
       </c>
       <c r="K46" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L46" s="11">
         <f t="shared" si="1"/>
@@ -3747,11 +3754,11 @@
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M47" s="11">
         <f>SUM(C46:M46)</f>
-        <v>2.666666666666667</v>
+        <v>3.0000000000000004</v>
       </c>
       <c r="N47" s="11">
         <f>SUM(N2:N45)</f>
-        <v>2.6666666666666665</v>
+        <v>2.9999999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -3760,7 +3767,7 @@
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:M2 C45:M45 C4:M18 C23:D30 C19:D21 F19:M21 F23:M24 C32:D44 F44:M44 F32:F43 F25:F30">
+  <conditionalFormatting sqref="C2:M2 C45:M45 C4:M18 C23:D30 C19:D21 F19:M21 F23:M24 C32:D44 F44:M44 F32:F43 F25:F30 G38:I38 K38">
     <cfRule type="cellIs" dxfId="40" priority="47" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -3780,7 +3787,7 @@
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C45:M45 C2:M18 G22:M22 C19:D30 F19:M21 F23:M24 C32:D44 F44:M44 F32:F43 F25:F30">
+  <conditionalFormatting sqref="C45:M45 C2:M18 G22:M22 C19:D30 F19:M21 F23:M24 C32:D44 F44:M44 F32:F43 F25:F30 G38:I38 K38">
     <cfRule type="cellIs" dxfId="36" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -3917,12 +3924,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25:M43">
+  <conditionalFormatting sqref="G25:M37 G39:M43 L38:M38">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25:M43">
+  <conditionalFormatting sqref="G25:M37 G39:M43 L38:M38">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/docs/Analysis/RP_Planification.xlsx
+++ b/docs/Analysis/RP_Planification.xlsx
@@ -1231,7 +1231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -2554,8 +2554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3512,11 +3512,13 @@
       <c r="K38" s="15">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="L38" s="15"/>
+      <c r="L38" s="15">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="M38" s="15"/>
       <c r="N38" s="11">
         <f t="shared" si="0"/>
-        <v>0.41666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -3568,11 +3570,13 @@
       <c r="K40" s="15">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="L40" s="15"/>
+      <c r="L40" s="15">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="M40" s="15"/>
       <c r="N40" s="11">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -3627,11 +3631,13 @@
       <c r="K42" s="15">
         <v>0.125</v>
       </c>
-      <c r="L42" s="15"/>
+      <c r="L42" s="15">
+        <v>0.125</v>
+      </c>
       <c r="M42" s="15"/>
       <c r="N42" s="11">
         <f t="shared" si="0"/>
-        <v>0.77083333333333337</v>
+        <v>0.89583333333333337</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -3652,11 +3658,13 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
+      <c r="L43" s="15">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="M43" s="15"/>
       <c r="N43" s="11">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -3675,11 +3683,13 @@
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
+      <c r="L44" s="14">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="M44" s="16"/>
       <c r="N44" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3744,7 +3754,7 @@
       </c>
       <c r="L46" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M46" s="11">
         <f t="shared" si="1"/>
@@ -3754,11 +3764,11 @@
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M47" s="11">
         <f>SUM(C46:M46)</f>
-        <v>3.0000000000000004</v>
+        <v>3.3333333333333339</v>
       </c>
       <c r="N47" s="11">
         <f>SUM(N2:N45)</f>
-        <v>2.9999999999999996</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Analysis/RP_Planification.xlsx
+++ b/docs/Analysis/RP_Planification.xlsx
@@ -15,6 +15,10 @@
     <sheet name="Prévisionnel" sheetId="1" r:id="rId1"/>
     <sheet name="Effectif" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Effectif!$A$1:$N$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Prévisionnel!$A$1:$N$47</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -378,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -413,9 +417,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -425,9 +426,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -453,11 +451,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="70">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -765,6 +764,46 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1231,15 +1270,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.140625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="13" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" style="28" customWidth="1"/>
+    <col min="2" max="14" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1362,24 +1400,25 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="16"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="35"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="13">
@@ -1404,7 +1443,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="13">
@@ -1429,7 +1468,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="13">
@@ -1454,7 +1493,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="13">
@@ -1479,7 +1518,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="13">
@@ -1504,7 +1543,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="13">
@@ -1529,7 +1568,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="13">
@@ -1554,7 +1593,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="13">
@@ -1581,7 +1620,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="13">
@@ -1606,7 +1645,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="13">
@@ -1631,7 +1670,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="13">
@@ -1656,7 +1695,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="13">
@@ -1681,24 +1720,25 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="16"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="35"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="13">
@@ -1709,12 +1749,12 @@
       <c r="F19" s="14">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G19" s="21"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="21"/>
+      <c r="I19" s="20"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
-      <c r="L19" s="21"/>
+      <c r="L19" s="20"/>
       <c r="M19" s="16"/>
       <c r="N19" s="11">
         <f t="shared" si="0"/>
@@ -1722,23 +1762,23 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="13">
         <v>0.125</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="15"/>
       <c r="F20" s="14">
         <v>0.125</v>
       </c>
-      <c r="G20" s="21"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="21"/>
+      <c r="I20" s="20"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
-      <c r="L20" s="21"/>
+      <c r="L20" s="20"/>
       <c r="M20" s="16"/>
       <c r="N20" s="11">
         <f t="shared" si="0"/>
@@ -1746,13 +1786,13 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="13">
         <v>0.125</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="15"/>
       <c r="F21" s="14">
         <v>0.10416666666666667</v>
@@ -1761,10 +1801,10 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="H21" s="15"/>
-      <c r="I21" s="21"/>
+      <c r="I21" s="20"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
-      <c r="L21" s="21"/>
+      <c r="L21" s="20"/>
       <c r="M21" s="16"/>
       <c r="N21" s="11">
         <f t="shared" si="0"/>
@@ -1772,22 +1812,22 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="13">
         <v>6.25E-2</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="15"/>
       <c r="G22" s="14">
         <v>6.25E-2</v>
       </c>
       <c r="H22" s="15"/>
-      <c r="I22" s="21"/>
+      <c r="I22" s="20"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
-      <c r="L22" s="21"/>
+      <c r="L22" s="20"/>
       <c r="M22" s="16"/>
       <c r="N22" s="11">
         <f t="shared" si="0"/>
@@ -1795,13 +1835,13 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="19" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C23" s="21"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="15"/>
       <c r="E23" s="14"/>
       <c r="F23" s="15"/>
@@ -1809,10 +1849,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="H23" s="15"/>
-      <c r="I23" s="21"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
-      <c r="L23" s="21"/>
+      <c r="L23" s="20"/>
       <c r="M23" s="16"/>
       <c r="N23" s="11">
         <f t="shared" si="0"/>
@@ -1820,24 +1860,25 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="16"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="35"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="13">
@@ -1861,7 +1902,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B26" s="13">
@@ -1886,7 +1927,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="13">
@@ -1911,7 +1952,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="21" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="13">
@@ -1936,7 +1977,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B29" s="13">
@@ -1961,7 +2002,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="21" t="s">
         <v>48</v>
       </c>
       <c r="B30" s="13">
@@ -1986,7 +2027,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="21" t="s">
         <v>49</v>
       </c>
       <c r="B31" s="13">
@@ -2010,7 +2051,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="21" t="s">
         <v>50</v>
       </c>
       <c r="B32" s="13">
@@ -2035,7 +2076,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="21" t="s">
         <v>51</v>
       </c>
       <c r="B33" s="13">
@@ -2060,7 +2101,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B34" s="13">
@@ -2085,7 +2126,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="21" t="s">
         <v>54</v>
       </c>
       <c r="B35" s="13">
@@ -2110,7 +2151,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B36" s="13">
@@ -2135,24 +2176,25 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="16"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="35"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="13">
@@ -2191,7 +2233,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="13">
@@ -2226,7 +2268,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B40" s="13">
@@ -2251,24 +2293,25 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="16"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="35"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B42" s="13">
@@ -2313,7 +2356,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B43" s="13">
@@ -2342,7 +2385,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B44" s="13">
@@ -2367,19 +2410,19 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="29"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="27"/>
       <c r="N45" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2447,122 +2490,142 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:M2 F43:F44 H43:I44 I32:I42 C3:C30 I3:I30 L3:L30 E23:E24 E26:E30 F25 G3:G30 E3:E18 F19:F21 I45 C32:C45 E32:E45 G32:G45 L32:L45">
-    <cfRule type="cellIs" dxfId="64" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="43" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:M2 C23:M24 C32:M45 C4:M18 C26:M30 C25:D25 F25:M25 C19:D21 F19:M21 K31:M31 I31">
-    <cfRule type="cellIs" dxfId="63" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40 I40 G40 E40 C40">
-    <cfRule type="cellIs" dxfId="62" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="41" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:M40">
-    <cfRule type="cellIs" dxfId="61" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="40" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D44 G43:G44 J43:K44">
-    <cfRule type="cellIs" dxfId="60" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="38" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:M45 C2:M18 C23:M24 C26:M30 C25:D25 F25:M25 G22:M22 C19:D22 F19:M21 K31:M31 I31">
-    <cfRule type="cellIs" dxfId="59" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="35" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="37" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N4 N19:N23 N6:N17 N25:N36 N42:N45">
-    <cfRule type="cellIs" dxfId="56" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="29" operator="greaterThan">
       <formula>$B2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="34" operator="equal">
       <formula>$B2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="cellIs" dxfId="54" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="31" operator="greaterThan">
       <formula>3.66666666666667</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="33" operator="equal">
       <formula>3.66666666666667</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:M46">
-    <cfRule type="cellIs" dxfId="52" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="30" operator="greaterThan">
       <formula>0.333333333333333</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="32" operator="equal">
       <formula>0.333333333333333</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38:N40">
-    <cfRule type="cellIs" dxfId="50" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="27" operator="greaterThan">
       <formula>$B38</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="28" operator="equal">
       <formula>$B38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L41 I41 G41 E41 C41">
+    <cfRule type="cellIs" dxfId="53" priority="14" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:M41">
+    <cfRule type="cellIs" dxfId="52" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31 E31 G31 L31">
+    <cfRule type="cellIs" dxfId="51" priority="12" operator="greaterThan">
+      <formula>0.0000115740740740741</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:H31">
+    <cfRule type="cellIs" dxfId="50" priority="11" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:H31">
+    <cfRule type="cellIs" dxfId="49" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="48" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="cellIs" dxfId="46" priority="5" operator="greaterThan">
       <formula>0.0000115740740740741</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41:M41">
-    <cfRule type="cellIs" dxfId="47" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="B5">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31 E31 G31 L31">
-    <cfRule type="cellIs" dxfId="46" priority="7" operator="greaterThan">
-      <formula>0.0000115740740740741</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31:H31">
-    <cfRule type="cellIs" dxfId="45" priority="6" operator="greaterThan">
+  <conditionalFormatting sqref="B5">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31:H31">
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="5" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.140625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="13" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="46.140625" style="28" customWidth="1"/>
+    <col min="2" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2685,25 +2748,25 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="37"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="35"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="13">
@@ -2730,7 +2793,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="13">
@@ -2755,7 +2818,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="13">
@@ -2780,7 +2843,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="13">
@@ -2805,7 +2868,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="13">
@@ -2830,7 +2893,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="13">
@@ -2855,7 +2918,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="13">
@@ -2880,7 +2943,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="13">
@@ -2905,7 +2968,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="13">
@@ -2930,7 +2993,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="13">
@@ -2955,7 +3018,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="13">
@@ -2979,8 +3042,8 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="13">
@@ -3004,26 +3067,26 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="37"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="35"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="13">
@@ -3035,51 +3098,53 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="F19" s="14"/>
-      <c r="G19" s="21"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="21"/>
+      <c r="I19" s="20"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
-      <c r="L19" s="21"/>
+      <c r="L19" s="20"/>
       <c r="M19" s="16"/>
       <c r="N19" s="11">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="13">
         <v>0.125</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="15"/>
       <c r="E20" s="14">
         <v>6.25E-2</v>
       </c>
       <c r="F20" s="14"/>
-      <c r="G20" s="21"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="21"/>
+      <c r="I20" s="20"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
-      <c r="L20" s="21"/>
+      <c r="L20" s="20"/>
       <c r="M20" s="16"/>
       <c r="N20" s="11">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+    </row>
+    <row r="21" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="13">
         <v>0.125</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="15"/>
       <c r="E21" s="14">
         <v>8.3333333333333329E-2</v>
@@ -3087,24 +3152,26 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="21"/>
+      <c r="I21" s="20"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
-      <c r="L21" s="21"/>
+      <c r="L21" s="20"/>
       <c r="M21" s="16"/>
       <c r="N21" s="11">
         <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="13">
         <v>6.25E-2</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="15"/>
       <c r="E22" s="14">
         <v>2.0833333333333332E-2</v>
@@ -3114,61 +3181,67 @@
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="21"/>
+      <c r="I22" s="20"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
-      <c r="L22" s="21"/>
+      <c r="L22" s="20"/>
       <c r="M22" s="16"/>
       <c r="N22" s="11">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C23" s="21"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="31"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="15">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="21"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
-      <c r="L23" s="21"/>
+      <c r="L23" s="20"/>
       <c r="M23" s="16"/>
       <c r="N23" s="11">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="37"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="35"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="13">
@@ -3176,7 +3249,7 @@
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="31"/>
+      <c r="E25" s="29"/>
       <c r="F25" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -3186,14 +3259,16 @@
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
+      <c r="M25" s="16"/>
       <c r="N25" s="11">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B26" s="13">
@@ -3201,7 +3276,7 @@
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="15"/>
-      <c r="E26" s="31"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="15">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -3211,14 +3286,16 @@
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
+      <c r="M26" s="16"/>
       <c r="N26" s="11">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="13">
@@ -3226,7 +3303,7 @@
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="31"/>
+      <c r="E27" s="29"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15">
         <v>2.0833333333333332E-2</v>
@@ -3236,14 +3313,16 @@
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
+      <c r="M27" s="16"/>
       <c r="N27" s="11">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="13">
@@ -3251,7 +3330,7 @@
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="15"/>
-      <c r="E28" s="31"/>
+      <c r="E28" s="29"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15">
         <v>6.25E-2</v>
@@ -3261,14 +3340,14 @@
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
+      <c r="M28" s="16"/>
       <c r="N28" s="11">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B29" s="13">
@@ -3276,7 +3355,7 @@
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="31"/>
+      <c r="E29" s="29"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15">
         <v>4.1666666666666664E-2</v>
@@ -3286,14 +3365,14 @@
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
+      <c r="M29" s="16"/>
       <c r="N29" s="11">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
         <v>48</v>
       </c>
       <c r="B30" s="13">
@@ -3301,7 +3380,7 @@
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="15"/>
-      <c r="E30" s="31"/>
+      <c r="E30" s="29"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15">
         <v>4.1666666666666664E-2</v>
@@ -3311,14 +3390,14 @@
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
+      <c r="M30" s="16"/>
       <c r="N30" s="11">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
         <v>49</v>
       </c>
       <c r="B31" s="13">
@@ -3326,7 +3405,7 @@
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="15"/>
-      <c r="E31" s="31"/>
+      <c r="E31" s="29"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15">
         <v>2.0833333333333332E-2</v>
@@ -3336,14 +3415,14 @@
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
+      <c r="M31" s="16"/>
       <c r="N31" s="11">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
         <v>50</v>
       </c>
       <c r="B32" s="13">
@@ -3351,7 +3430,7 @@
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="31"/>
+      <c r="E32" s="29"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15">
         <v>2.0833333333333332E-2</v>
@@ -3361,14 +3440,14 @@
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
+      <c r="M32" s="16"/>
       <c r="N32" s="11">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="21" t="s">
         <v>51</v>
       </c>
       <c r="B33" s="13">
@@ -3376,7 +3455,7 @@
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="31"/>
+      <c r="E33" s="29"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15">
         <v>2.0833333333333332E-2</v>
@@ -3386,14 +3465,14 @@
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
+      <c r="M33" s="16"/>
       <c r="N33" s="11">
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B34" s="13">
@@ -3401,7 +3480,7 @@
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="31"/>
+      <c r="E34" s="29"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15">
         <v>4.1666666666666664E-2</v>
@@ -3411,14 +3490,14 @@
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
+      <c r="M34" s="16"/>
       <c r="N34" s="11">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="21" t="s">
         <v>54</v>
       </c>
       <c r="B35" s="13">
@@ -3426,7 +3505,7 @@
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="31"/>
+      <c r="E35" s="29"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15">
@@ -3438,14 +3517,16 @@
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
+      <c r="M35" s="16">
+        <v>6.25E-2</v>
+      </c>
       <c r="N35" s="11">
         <f t="shared" si="0"/>
-        <v>0.10416666666666666</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B36" s="13">
@@ -3453,7 +3534,7 @@
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="31"/>
+      <c r="E36" s="29"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15">
@@ -3462,33 +3543,35 @@
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
+      <c r="L36" s="15">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M36" s="16"/>
       <c r="N36" s="11">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="37"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="35"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="13">
@@ -3496,7 +3579,7 @@
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="31"/>
+      <c r="E38" s="29"/>
       <c r="F38" s="15">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -3515,14 +3598,16 @@
       <c r="L38" s="15">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="M38" s="15"/>
+      <c r="M38" s="16">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="N38" s="11">
         <f t="shared" si="0"/>
-        <v>0.45833333333333331</v>
+        <v>0.47916666666666663</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="13">
@@ -3530,7 +3615,7 @@
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="31"/>
+      <c r="E39" s="29"/>
       <c r="F39" s="15">
         <v>0.10416666666666667</v>
       </c>
@@ -3546,14 +3631,16 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
+      <c r="M39" s="16">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="N39" s="11">
         <f t="shared" si="0"/>
-        <v>0.35416666666666663</v>
+        <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B40" s="13">
@@ -3561,7 +3648,7 @@
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="31"/>
+      <c r="E40" s="29"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
@@ -3573,32 +3660,34 @@
       <c r="L40" s="15">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="M40" s="15"/>
+      <c r="M40" s="16">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="N40" s="11">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.10416666666666666</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="37"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="35"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B42" s="13">
@@ -3632,16 +3721,18 @@
         <v>0.125</v>
       </c>
       <c r="L42" s="15">
-        <v>0.125</v>
-      </c>
-      <c r="M42" s="15"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="M42" s="16">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="N42" s="11">
         <f t="shared" si="0"/>
-        <v>0.89583333333333337</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="21" t="s">
         <v>56</v>
       </c>
       <c r="B43" s="13">
@@ -3649,7 +3740,7 @@
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="31"/>
+      <c r="E43" s="29"/>
       <c r="F43" s="14"/>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
@@ -3661,14 +3752,16 @@
       <c r="L43" s="15">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="M43" s="15"/>
+      <c r="M43" s="16">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="N43" s="11">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B44" s="13">
@@ -3676,7 +3769,7 @@
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="31"/>
+      <c r="E44" s="29"/>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
@@ -3686,26 +3779,28 @@
       <c r="L44" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="M44" s="16"/>
+      <c r="M44" s="16">
+        <v>6.25E-2</v>
+      </c>
       <c r="N44" s="11">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.10416666666666666</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="29"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="27"/>
       <c r="N45" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3758,17 +3853,17 @@
       </c>
       <c r="M46" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M47" s="11">
         <f>SUM(C46:M46)</f>
-        <v>3.3333333333333339</v>
+        <v>3.6666666666666674</v>
       </c>
       <c r="N47" s="11">
         <f>SUM(N2:N45)</f>
-        <v>3.3333333333333335</v>
+        <v>3.6666666666666661</v>
       </c>
     </row>
   </sheetData>
@@ -3951,5 +4046,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>